--- a/biology/Biologie cellulaire et moléculaire/Unité_multicellulaire_de_base/Unité_multicellulaire_de_base.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Unité_multicellulaire_de_base/Unité_multicellulaire_de_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_multicellulaire_de_base</t>
+          <t>Unité_multicellulaire_de_base</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une unité multicellulaire de base (en anglais, Basic Multicellular Unit) est[Quoi ?], découverte par Frost[Qui ?][1] en 1990[2]. 
-Les unités multicellulaires de base permettent l'apparition de Ostéone et l'équilibre entre la construction et la destruction de la matrice osseuse. Elles vont être organisé en cylindre composé des ostéoclastes aux extrémité, du tissu conjonctif vascularisé au centre et de lamelles de tissu osseux tout autour(contenant les ostéocytes et séparé du tissu conjonctif par des ostéoblastes)[3]. Elles se situent toujours à l'extrémité distale d'un ostéone et sont activées par différents facteurs comme l'âge, les conditions métaboliques ou encore des pathologies.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une unité multicellulaire de base (en anglais, Basic Multicellular Unit) est[Quoi ?], découverte par Frost[Qui ?] en 1990. 
+Les unités multicellulaires de base permettent l'apparition de Ostéone et l'équilibre entre la construction et la destruction de la matrice osseuse. Elles vont être organisé en cylindre composé des ostéoclastes aux extrémité, du tissu conjonctif vascularisé au centre et de lamelles de tissu osseux tout autour(contenant les ostéocytes et séparé du tissu conjonctif par des ostéoblastes). Elles se situent toujours à l'extrémité distale d'un ostéone et sont activées par différents facteurs comme l'âge, les conditions métaboliques ou encore des pathologies.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_multicellulaire_de_base</t>
+          <t>Unité_multicellulaire_de_base</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il y a quatre étapes majeures dans la formation d'une unité multicellulaire de base (BMU) qui permettra à terme de produire un ostéone :
 L'activation des ostéoclastes: Migration des ostéoclastes au contact de la matrice osseuse et début de la dégradation à l'aide de lysosomes et d'enzymes relâchées
